--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - GP2 codes.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - GP2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7019" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6932" uniqueCount="125">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -388,7 +388,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:21:47</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:18:19</t>
   </si>
 </sst>
 </file>
@@ -13886,14 +13886,14 @@
       <c r="UD7" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="UE7" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF7" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG7" t="s" s="10">
-        <v>66</v>
+      <c r="UE7" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="UF7" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="UG7" t="n" s="10">
+        <v>104.2</v>
       </c>
       <c r="UH7" t="s" s="10">
         <v>66</v>
@@ -15550,14 +15550,14 @@
       <c r="UD8" t="n" s="10">
         <v>128.1</v>
       </c>
-      <c r="UE8" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF8" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG8" t="s" s="10">
-        <v>66</v>
+      <c r="UE8" t="n" s="10">
+        <v>139.8</v>
+      </c>
+      <c r="UF8" t="n" s="10">
+        <v>183.9</v>
+      </c>
+      <c r="UG8" t="n" s="10">
+        <v>231.5</v>
       </c>
       <c r="UH8" t="s" s="10">
         <v>66</v>
@@ -17214,14 +17214,14 @@
       <c r="UD9" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="UE9" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF9" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG9" t="s" s="10">
-        <v>66</v>
+      <c r="UE9" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="UF9" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="UG9" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="UH9" t="s" s="10">
         <v>66</v>
@@ -18878,14 +18878,14 @@
       <c r="UD10" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="UE10" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF10" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG10" t="s" s="10">
-        <v>66</v>
+      <c r="UE10" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="UF10" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="UG10" t="n" s="10">
+        <v>113.5</v>
       </c>
       <c r="UH10" t="s" s="10">
         <v>66</v>
@@ -20542,14 +20542,14 @@
       <c r="UD11" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="UE11" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF11" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG11" t="s" s="10">
-        <v>66</v>
+      <c r="UE11" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="UF11" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="UG11" t="n" s="10">
+        <v>109.6</v>
       </c>
       <c r="UH11" t="s" s="10">
         <v>66</v>
@@ -22206,14 +22206,14 @@
       <c r="UD12" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="UE12" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF12" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG12" t="s" s="10">
-        <v>66</v>
+      <c r="UE12" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="UF12" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="UG12" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="UH12" t="s" s="10">
         <v>66</v>
@@ -23870,14 +23870,14 @@
       <c r="UD13" t="n" s="10">
         <v>106.0</v>
       </c>
-      <c r="UE13" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF13" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG13" t="s" s="10">
-        <v>66</v>
+      <c r="UE13" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="UF13" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="UG13" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="UH13" t="s" s="10">
         <v>66</v>
@@ -25534,14 +25534,14 @@
       <c r="UD14" t="n" s="10">
         <v>105.6</v>
       </c>
-      <c r="UE14" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF14" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG14" t="s" s="10">
-        <v>66</v>
+      <c r="UE14" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="UF14" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="UG14" t="n" s="10">
+        <v>106.2</v>
       </c>
       <c r="UH14" t="s" s="10">
         <v>66</v>
@@ -27198,14 +27198,14 @@
       <c r="UD15" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="UE15" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF15" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG15" t="s" s="10">
-        <v>66</v>
+      <c r="UE15" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="UF15" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="UG15" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="UH15" t="s" s="10">
         <v>66</v>
@@ -28862,14 +28862,14 @@
       <c r="UD16" t="n" s="10">
         <v>148.8</v>
       </c>
-      <c r="UE16" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF16" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG16" t="s" s="10">
-        <v>66</v>
+      <c r="UE16" t="n" s="10">
+        <v>148.6</v>
+      </c>
+      <c r="UF16" t="n" s="10">
+        <v>145.2</v>
+      </c>
+      <c r="UG16" t="n" s="10">
+        <v>142.4</v>
       </c>
       <c r="UH16" t="s" s="10">
         <v>66</v>
@@ -30526,14 +30526,14 @@
       <c r="UD17" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="UE17" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF17" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG17" t="s" s="10">
-        <v>66</v>
+      <c r="UE17" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="UF17" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="UG17" t="n" s="10">
+        <v>118.8</v>
       </c>
       <c r="UH17" t="s" s="10">
         <v>66</v>
@@ -32190,14 +32190,14 @@
       <c r="UD18" t="n" s="10">
         <v>99.3</v>
       </c>
-      <c r="UE18" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF18" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG18" t="s" s="10">
-        <v>66</v>
+      <c r="UE18" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="UF18" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="UG18" t="n" s="10">
+        <v>102.1</v>
       </c>
       <c r="UH18" t="s" s="10">
         <v>66</v>
@@ -33854,14 +33854,14 @@
       <c r="UD19" t="n" s="10">
         <v>118.3</v>
       </c>
-      <c r="UE19" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF19" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG19" t="s" s="10">
-        <v>66</v>
+      <c r="UE19" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="UF19" t="n" s="10">
+        <v>130.8</v>
+      </c>
+      <c r="UG19" t="n" s="10">
+        <v>133.1</v>
       </c>
       <c r="UH19" t="s" s="10">
         <v>66</v>
@@ -35518,14 +35518,14 @@
       <c r="UD20" t="n" s="10">
         <v>115.3</v>
       </c>
-      <c r="UE20" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF20" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG20" t="s" s="10">
-        <v>66</v>
+      <c r="UE20" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="UF20" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="UG20" t="n" s="10">
+        <v>122.6</v>
       </c>
       <c r="UH20" t="s" s="10">
         <v>66</v>
@@ -37182,14 +37182,14 @@
       <c r="UD21" t="n" s="10">
         <v>106.0</v>
       </c>
-      <c r="UE21" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF21" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG21" t="s" s="10">
-        <v>66</v>
+      <c r="UE21" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="UF21" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="UG21" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="UH21" t="s" s="10">
         <v>66</v>
@@ -38846,14 +38846,14 @@
       <c r="UD22" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="UE22" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF22" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG22" t="s" s="10">
-        <v>66</v>
+      <c r="UE22" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="UF22" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="UG22" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="UH22" t="s" s="10">
         <v>66</v>
@@ -40510,14 +40510,14 @@
       <c r="UD23" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="UE23" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF23" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG23" t="s" s="10">
-        <v>66</v>
+      <c r="UE23" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="UF23" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="UG23" t="n" s="10">
+        <v>115.8</v>
       </c>
       <c r="UH23" t="s" s="10">
         <v>66</v>
@@ -42174,14 +42174,14 @@
       <c r="UD24" t="n" s="10">
         <v>138.9</v>
       </c>
-      <c r="UE24" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF24" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG24" t="s" s="10">
-        <v>66</v>
+      <c r="UE24" t="n" s="10">
+        <v>140.6</v>
+      </c>
+      <c r="UF24" t="n" s="10">
+        <v>143.0</v>
+      </c>
+      <c r="UG24" t="n" s="10">
+        <v>144.0</v>
       </c>
       <c r="UH24" t="s" s="10">
         <v>66</v>
@@ -43838,14 +43838,14 @@
       <c r="UD25" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="UE25" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF25" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG25" t="s" s="10">
-        <v>66</v>
+      <c r="UE25" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="UF25" t="n" s="10">
+        <v>115.9</v>
+      </c>
+      <c r="UG25" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="UH25" t="s" s="10">
         <v>66</v>
@@ -45502,14 +45502,14 @@
       <c r="UD26" t="n" s="10">
         <v>96.8</v>
       </c>
-      <c r="UE26" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF26" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG26" t="s" s="10">
-        <v>66</v>
+      <c r="UE26" t="n" s="10">
+        <v>97.1</v>
+      </c>
+      <c r="UF26" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="UG26" t="n" s="10">
+        <v>97.8</v>
       </c>
       <c r="UH26" t="s" s="10">
         <v>66</v>
@@ -47166,14 +47166,14 @@
       <c r="UD27" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="UE27" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF27" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG27" t="s" s="10">
-        <v>66</v>
+      <c r="UE27" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="UF27" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="UG27" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="UH27" t="s" s="10">
         <v>66</v>
@@ -48830,14 +48830,14 @@
       <c r="UD28" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="UE28" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF28" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG28" t="s" s="10">
-        <v>66</v>
+      <c r="UE28" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="UF28" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="UG28" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="UH28" t="s" s="10">
         <v>66</v>
@@ -50494,14 +50494,14 @@
       <c r="UD29" t="n" s="10">
         <v>105.0</v>
       </c>
-      <c r="UE29" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF29" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG29" t="s" s="10">
-        <v>66</v>
+      <c r="UE29" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="UF29" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="UG29" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="UH29" t="s" s="10">
         <v>66</v>
@@ -52158,14 +52158,14 @@
       <c r="UD30" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="UE30" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF30" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG30" t="s" s="10">
-        <v>66</v>
+      <c r="UE30" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="UF30" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="UG30" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="UH30" t="s" s="10">
         <v>66</v>
@@ -53822,14 +53822,14 @@
       <c r="UD31" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="UE31" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF31" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG31" t="s" s="10">
-        <v>66</v>
+      <c r="UE31" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="UF31" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="UG31" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="UH31" t="s" s="10">
         <v>66</v>
@@ -55486,14 +55486,14 @@
       <c r="UD32" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="UE32" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF32" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG32" t="s" s="10">
-        <v>66</v>
+      <c r="UE32" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="UF32" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="UG32" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="UH32" t="s" s="10">
         <v>66</v>
@@ -57150,14 +57150,14 @@
       <c r="UD33" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="UE33" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF33" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG33" t="s" s="10">
-        <v>66</v>
+      <c r="UE33" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="UF33" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="UG33" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="UH33" t="s" s="10">
         <v>66</v>
@@ -58814,14 +58814,14 @@
       <c r="UD34" t="n" s="10">
         <v>123.5</v>
       </c>
-      <c r="UE34" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF34" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG34" t="s" s="10">
-        <v>66</v>
+      <c r="UE34" t="n" s="10">
+        <v>135.2</v>
+      </c>
+      <c r="UF34" t="n" s="10">
+        <v>152.8</v>
+      </c>
+      <c r="UG34" t="n" s="10">
+        <v>154.0</v>
       </c>
       <c r="UH34" t="s" s="10">
         <v>66</v>
@@ -60478,14 +60478,14 @@
       <c r="UD35" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="UE35" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UF35" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="UG35" t="s" s="10">
-        <v>66</v>
+      <c r="UE35" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="UF35" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="UG35" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="UH35" t="s" s="10">
         <v>66</v>
@@ -60557,7 +60557,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:21:55&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:18:31&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>